--- a/SMO/TemplateExcel/Template_KeHoachChiPhi.xlsx
+++ b/SMO/TemplateExcel/Template_KeHoachChiPhi.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60771383-6981-445F-BA4E-75527D897987}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2580760F-F738-4EF3-A5B2-C985793202AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chi phí kinh doanh" sheetId="1" r:id="rId1"/>
+    <sheet name="Dòng tiền chi khác của dự án" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dòng tiền chi khác của dự án'!$A$6:$J$138</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,75 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>KẾ HOẠCH NGÂN SÁCH CHI PHÍ KINH DOANH</t>
-  </si>
-  <si>
-    <t>Năm ngân sách:</t>
-  </si>
-  <si>
-    <r>
-      <t>Người lập</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>Người duyệt:</t>
-  </si>
-  <si>
-    <t>Tháng 1</t>
-  </si>
-  <si>
-    <t>Tháng 2</t>
-  </si>
-  <si>
-    <t>Tháng 3</t>
-  </si>
-  <si>
-    <t>Tháng 4</t>
-  </si>
-  <si>
-    <t>Tháng 5</t>
-  </si>
-  <si>
-    <t>Tháng 6</t>
-  </si>
-  <si>
-    <t>Tháng 7</t>
-  </si>
-  <si>
-    <t>Tháng 8</t>
-  </si>
-  <si>
-    <t>Tháng 9</t>
-  </si>
-  <si>
-    <t>Tháng 10</t>
-  </si>
-  <si>
-    <t>Tháng 11</t>
-  </si>
-  <si>
-    <t>Tháng 12</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>Mã đơn vị</t>
-  </si>
-  <si>
-    <t>Tên đơn vị</t>
+    <t>KẾ HOẠCH NGÂN SÁCH DOANH THU KINH DOANH</t>
   </si>
   <si>
     <t>Mã khoản mục</t>
@@ -97,20 +39,41 @@
     <t>Tên khoản mục</t>
   </si>
   <si>
-    <t>Đơn vị: Đồng</t>
+    <t>Ghi chú</t>
   </si>
   <si>
-    <t>Tổng năm</t>
+    <t>Người lập:</t>
   </si>
   <si>
-    <t>Trung bình tháng</t>
+    <t>Người duyệt:</t>
+  </si>
+  <si>
+    <t>Mã sân bay</t>
+  </si>
+  <si>
+    <t>Tên sân bay</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>Mã hàng hoá</t>
+  </si>
+  <si>
+    <t>Tên hàng hoá</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,13 +101,6 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,15 +108,21 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -203,21 +165,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -231,17 +178,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -249,22 +197,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,7 +249,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -316,7 +261,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -363,6 +308,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -398,6 +360,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,189 +529,909 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" style="1" customWidth="1"/>
-    <col min="5" max="16" width="10.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.21875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="21.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="O2" s="1" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="O3" s="1" t="s">
-        <v>21</v>
+      <c r="E6" s="13" t="s">
+        <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="F6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-    </row>
-    <row r="7" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="14"/>
-    </row>
-    <row r="8" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="14"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="G120" s="5"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="G138" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:M3"/>
+    <mergeCell ref="C2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SMO/TemplateExcel/Template_KeHoachChiPhi.xlsx
+++ b/SMO/TemplateExcel/Template_KeHoachChiPhi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2580760F-F738-4EF3-A5B2-C985793202AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D252208-B929-48E0-9D00-EA9737093A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dòng tiền chi khác của dự án'!$A$6:$J$138</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,12 +31,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>KẾ HOẠCH NGÂN SÁCH DOANH THU KINH DOANH</t>
-  </si>
-  <si>
-    <t>Mã khoản mục</t>
-  </si>
-  <si>
-    <t>Tên khoản mục</t>
   </si>
   <si>
     <t>Ghi chú</t>
@@ -63,10 +57,16 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>Mã hàng hoá</t>
+    <t>Mã chi nhánh</t>
   </si>
   <si>
-    <t>Tên hàng hoá</t>
+    <t>Tên chi nhánh</t>
+  </si>
+  <si>
+    <t>Mã chỉ tiêu</t>
+  </si>
+  <si>
+    <t>Tên chỉ tiêu</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
       <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -572,7 +572,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -585,7 +585,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -593,16 +593,16 @@
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>11</v>
@@ -611,16 +611,16 @@
         <v>12</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="J6" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
